--- a/individual_results/avey/81.xlsx
+++ b/individual_results/avey/81.xlsx
@@ -570,7 +570,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="I2" t="n">
         <v>0.3333333333333333</v>
@@ -594,7 +594,7 @@
         <v>1</v>
       </c>
       <c r="P2" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0.2</v>
@@ -643,7 +643,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="I3" t="n">
         <v>0.5</v>
@@ -667,7 +667,7 @@
         <v>0.5</v>
       </c>
       <c r="P3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0.5</v>
@@ -714,7 +714,7 @@
       </c>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="I4" t="n">
         <v>0.4</v>
@@ -735,9 +735,7 @@
       <c r="O4" t="n">
         <v>0.6666666666666666</v>
       </c>
-      <c r="P4" t="n">
-        <v>0.4</v>
-      </c>
+      <c r="P4" t="inlineStr"/>
       <c r="Q4" t="n">
         <v>0.2857142857142858</v>
       </c>
@@ -783,7 +781,7 @@
       </c>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="I5" t="n">
         <v>0.4545454545454545</v>
@@ -804,9 +802,7 @@
       <c r="O5" t="n">
         <v>0.5555555555555556</v>
       </c>
-      <c r="P5" t="n">
-        <v>0.625</v>
-      </c>
+      <c r="P5" t="inlineStr"/>
       <c r="Q5" t="n">
         <v>0.3846153846153846</v>
       </c>
@@ -854,7 +850,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0.8262346571285599</v>
       </c>
       <c r="I6" t="n">
         <v>0.8262346571285599</v>
@@ -878,7 +874,7 @@
         <v>0.8262346571285599</v>
       </c>
       <c r="P6" t="n">
-        <v>0.3622942238119067</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0.52129602861432</v>
@@ -1165,9 +1161,7 @@
       <c r="O10" t="n">
         <v>1</v>
       </c>
-      <c r="P10" t="n">
-        <v>7</v>
-      </c>
+      <c r="P10" t="inlineStr"/>
       <c r="Q10" t="n">
         <v>2</v>
       </c>
